--- a/notebooks/MRAS/input/OMIM_618499_individuals.xlsx
+++ b/notebooks/MRAS/input/OMIM_618499_individuals.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansenp/development/phenopacket-store/notebooks/MRAS/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DB5C39-A743-144F-AF9F-1CCF0DB5278F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE882465-6A66-9E43-9D9C-ACEB14E8AF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Curated template" sheetId="1" r:id="rId1"/>
+    <sheet name="Compare Higgins and Suzuki" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1436,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAB3541-4C62-F84D-B1EE-03A472EB5C52}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
